--- a/Lesson6/Week 6/CollegeDebt.xlsx
+++ b/Lesson6/Week 6/CollegeDebt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://webmailbyui-my.sharepoint.com/personal/curtisgn_byui_edu/Documents/Course Lead/108/Math108XWebsite/math108x/Lesson6/Week 6/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_6460FA79EC612A66925B6D820A8C36298CD2B1FF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{75B68E25-2163-4532-9A8C-15687191AAAE}"/>
+  <xr:revisionPtr revIDLastSave="45" documentId="11_6460FA79EC612A66925B6D820A8C36298CD2B1FF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A4A40683-F75B-4771-B415-92D10ECC5496}"/>
   <bookViews>
-    <workbookView xWindow="-27240" yWindow="-1830" windowWidth="21600" windowHeight="11385" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CollegeDebt" sheetId="1" r:id="rId1"/>
@@ -8863,10 +8863,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -9170,35 +9169,35 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>1716</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2">
         <v>10000</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2">
         <v>2664</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3">
         <v>11966.5</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3">
         <v>20208</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>1715</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4">
         <v>11000</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4">
         <v>27765</v>
       </c>
     </row>
